--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -468,21 +468,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
@@ -493,21 +493,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>162</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
@@ -548,16 +548,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>312</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6">
@@ -578,11 +578,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -593,21 +593,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>329</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>482</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
@@ -643,21 +643,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>270</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -668,21 +668,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>259</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -693,21 +693,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>461</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
@@ -723,16 +723,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
@@ -743,21 +743,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>465</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -768,21 +768,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
@@ -798,16 +798,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>352</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16">
@@ -818,21 +818,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>55</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17">
@@ -843,21 +843,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -868,21 +868,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>247</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
@@ -918,21 +918,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -953,11 +953,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>122</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
@@ -968,21 +968,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>66</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23">
@@ -993,21 +993,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24">
@@ -1018,21 +1018,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>167</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
@@ -1043,21 +1043,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>181</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1068,21 +1068,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1093,21 +1093,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>239</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
@@ -1143,21 +1143,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>457</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
@@ -1168,21 +1168,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>441</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -1193,21 +1193,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>253</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32">
@@ -1218,21 +1218,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>264</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
@@ -1248,16 +1248,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>256</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1268,21 +1268,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>332</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
@@ -1293,21 +1293,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1323,16 +1323,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>46</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37">
@@ -1343,21 +1343,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>378</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
@@ -1368,21 +1368,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>285</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39">
@@ -1393,21 +1393,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>431</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -1418,21 +1418,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>201</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41">
@@ -1443,21 +1443,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>355</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -1473,16 +1473,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
@@ -1498,16 +1498,16 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>451</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44">
@@ -1523,16 +1523,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>338</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>463</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46">
@@ -1573,16 +1573,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>398</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
@@ -1593,21 +1593,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>243</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48">
@@ -1618,21 +1618,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>98</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49">
@@ -1643,21 +1643,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>55</v>
+        <v>444</v>
       </c>
     </row>
     <row r="50">
@@ -1668,21 +1668,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>298</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52">
@@ -1718,21 +1718,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>71</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53">
@@ -1743,21 +1743,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>271</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54">
@@ -1768,21 +1768,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>142</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55">
@@ -1793,21 +1793,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>114</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56">
@@ -1818,21 +1818,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>53</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57">
@@ -1848,16 +1848,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>200</v>
+        <v>246</v>
       </c>
     </row>
     <row r="58">
@@ -1868,21 +1868,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>436</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -1918,21 +1918,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61">
@@ -1948,16 +1948,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>93</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>421</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63">
@@ -1993,21 +1993,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>127</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>250</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
@@ -2043,21 +2043,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>184</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66">
@@ -2068,21 +2068,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67">
@@ -2093,21 +2093,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>305</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68">
@@ -2123,16 +2123,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>482</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69">
@@ -2143,21 +2143,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70">
@@ -2168,21 +2168,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>260</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>387</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72">
@@ -2218,21 +2218,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73">
@@ -2243,21 +2243,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>231</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74">
@@ -2273,16 +2273,16 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>470</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75">
@@ -2298,16 +2298,16 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>216</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76">
@@ -2318,21 +2318,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>82</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77">
@@ -2343,21 +2343,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>79</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78">
@@ -2368,21 +2368,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>110</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79">
@@ -2393,21 +2393,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -2418,21 +2418,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>484</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81">
@@ -2448,16 +2448,16 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>471</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82">
@@ -2468,21 +2468,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>258</v>
+        <v>375</v>
       </c>
     </row>
     <row r="84">
@@ -2518,21 +2518,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
@@ -2543,21 +2543,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>499</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86">
@@ -2573,16 +2573,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>181</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87">
@@ -2593,21 +2593,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88">
@@ -2618,21 +2618,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
@@ -2643,21 +2643,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>269</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -2668,21 +2668,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>176</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
@@ -2693,21 +2693,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>168</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92">
@@ -2718,21 +2718,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>289</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93">
@@ -2743,21 +2743,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>356</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94">
@@ -2773,16 +2773,16 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>378</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95">
@@ -2798,16 +2798,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96">
@@ -2818,21 +2818,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>378</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97">
@@ -2843,21 +2843,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>272</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
@@ -2878,11 +2878,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>276</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99">
@@ -2893,21 +2893,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>280</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
@@ -2918,21 +2918,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>123</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101">
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>84</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102">
@@ -2968,21 +2968,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>215</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103">
@@ -2998,16 +2998,16 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>244</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -3018,21 +3018,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>112</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105">
@@ -3048,16 +3048,16 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106">
@@ -3068,21 +3068,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>82</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108">
@@ -3118,21 +3118,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109">
@@ -3143,21 +3143,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="110">
@@ -3168,21 +3168,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>299</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111">
@@ -3193,21 +3193,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>337</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112">
@@ -3218,21 +3218,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>235</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
@@ -3248,16 +3248,16 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
@@ -3268,21 +3268,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>394</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115">
@@ -3298,16 +3298,16 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>362</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116">
@@ -3323,16 +3323,16 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117">
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>160</v>
+        <v>424</v>
       </c>
     </row>
     <row r="118">
@@ -3368,21 +3368,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>212</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119">
@@ -3398,16 +3398,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>486</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120">
@@ -3423,16 +3423,16 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>320</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121">
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>500</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122">
@@ -3468,21 +3468,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>486</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123">
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>416</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124">
@@ -3518,21 +3518,21 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>218</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -3568,21 +3568,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>20</v>
+        <v>319</v>
       </c>
     </row>
     <row r="127">
@@ -3593,21 +3593,21 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>187</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128">
@@ -3618,21 +3618,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>169</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129">
@@ -3648,16 +3648,16 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130">
@@ -3668,21 +3668,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>388</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131">
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>397</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132">
@@ -3718,21 +3718,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133">
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>116</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134">
@@ -3768,21 +3768,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>404</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135">
@@ -3798,16 +3798,16 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136">
@@ -3818,21 +3818,21 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>396</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137">
@@ -3853,11 +3853,11 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>324</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -3868,21 +3868,21 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139">
@@ -3898,16 +3898,16 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
@@ -3918,21 +3918,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>77</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141">
@@ -3948,16 +3948,16 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>289</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142">
@@ -3968,21 +3968,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="143">
@@ -4003,11 +4003,11 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144">
@@ -4018,21 +4018,21 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>404</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
@@ -4043,21 +4043,21 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>235</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146">
@@ -4068,21 +4068,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>456</v>
+        <v>316</v>
       </c>
     </row>
     <row r="147">
@@ -4093,21 +4093,21 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>484</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148">
@@ -4118,21 +4118,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>337</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149">
@@ -4148,16 +4148,16 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151">
@@ -4198,16 +4198,16 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>261</v>
+        <v>358</v>
       </c>
     </row>
     <row r="152">
@@ -4218,21 +4218,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>112</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153">
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>121</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154">
@@ -4268,21 +4268,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155">
@@ -4293,21 +4293,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>233</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156">
@@ -4318,21 +4318,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>426</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157">
@@ -4343,21 +4343,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>81</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158">
@@ -4373,16 +4373,16 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>482</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
@@ -4393,21 +4393,21 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>414</v>
+        <v>356</v>
       </c>
     </row>
     <row r="160">
@@ -4423,16 +4423,16 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>116</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161">
@@ -4443,21 +4443,21 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>224</v>
+        <v>376</v>
       </c>
     </row>
     <row r="162">
@@ -4468,21 +4468,21 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>215</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163">
@@ -4493,21 +4493,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164">
@@ -4518,21 +4518,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>333</v>
+        <v>457</v>
       </c>
     </row>
     <row r="165">
@@ -4543,21 +4543,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>451</v>
+        <v>283</v>
       </c>
     </row>
     <row r="166">
@@ -4568,21 +4568,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>497</v>
+        <v>299</v>
       </c>
     </row>
     <row r="167">
@@ -4598,16 +4598,16 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>203</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168">
@@ -4623,16 +4623,16 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>64</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169">
@@ -4643,21 +4643,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>304</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171">
@@ -4693,21 +4693,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>114</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172">
@@ -4718,21 +4718,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>468</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173">
@@ -4748,16 +4748,16 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174">
@@ -4768,21 +4768,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="175">
@@ -4793,21 +4793,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>301</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>74</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177">
@@ -4843,21 +4843,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178">
@@ -4868,21 +4868,21 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>387</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179">
@@ -4893,21 +4893,21 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>350</v>
+        <v>443</v>
       </c>
     </row>
     <row r="180">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>113</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181">
@@ -4948,16 +4948,16 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182">
@@ -4973,16 +4973,16 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183">
@@ -4993,21 +4993,21 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="184">
@@ -5018,21 +5018,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185">
@@ -5043,21 +5043,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>230</v>
+        <v>390</v>
       </c>
     </row>
     <row r="186">
@@ -5068,21 +5068,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>458</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
@@ -5093,21 +5093,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188">
@@ -5123,16 +5123,16 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>44</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189">
@@ -5143,21 +5143,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>334</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190">
@@ -5168,21 +5168,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>343</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191">
@@ -5193,21 +5193,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="192">
@@ -5218,21 +5218,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>229</v>
+        <v>455</v>
       </c>
     </row>
     <row r="193">
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>184</v>
+        <v>116</v>
       </c>
     </row>
     <row r="194">
@@ -5273,16 +5273,16 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195">
@@ -5293,21 +5293,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>420</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196">
@@ -5318,21 +5318,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197">
@@ -5343,21 +5343,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>301</v>
+        <v>447</v>
       </c>
     </row>
     <row r="198">
@@ -5368,21 +5368,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199">
@@ -5393,21 +5393,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>429</v>
+        <v>19</v>
       </c>
     </row>
     <row r="200">
@@ -5423,16 +5423,16 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>102</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201">
@@ -5448,16 +5448,16 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202">
@@ -5482,7 +5482,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>117</v>
+        <v>316</v>
       </c>
     </row>
     <row r="203">
@@ -5493,21 +5493,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>108</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204">
@@ -5518,21 +5518,21 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>269</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205">
@@ -5543,21 +5543,21 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>434</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206">
@@ -5568,21 +5568,21 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="207">
@@ -5593,21 +5593,21 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>62</v>
+        <v>410</v>
       </c>
     </row>
     <row r="208">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>262</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209">
@@ -5643,21 +5643,21 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>349</v>
+        <v>187</v>
       </c>
     </row>
     <row r="210">
@@ -5673,16 +5673,16 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211">
@@ -5698,16 +5698,16 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>278</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212">
@@ -5723,16 +5723,16 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>138</v>
+        <v>296</v>
       </c>
     </row>
     <row r="213">
@@ -5743,21 +5743,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>210</v>
+        <v>371</v>
       </c>
     </row>
     <row r="214">
@@ -5773,16 +5773,16 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>351</v>
+        <v>457</v>
       </c>
     </row>
     <row r="215">
@@ -5793,21 +5793,21 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>337</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216">
@@ -5818,21 +5818,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>16</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217">
@@ -5843,21 +5843,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>334</v>
+        <v>54</v>
       </c>
     </row>
     <row r="218">
@@ -5868,21 +5868,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>470</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219">
@@ -5893,21 +5893,21 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>194</v>
+        <v>306</v>
       </c>
     </row>
     <row r="220">
@@ -5918,21 +5918,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>128</v>
+        <v>407</v>
       </c>
     </row>
     <row r="221">
@@ -5943,21 +5943,21 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>466</v>
+        <v>166</v>
       </c>
     </row>
     <row r="222">
@@ -5968,21 +5968,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>472</v>
+        <v>197</v>
       </c>
     </row>
     <row r="223">
@@ -5993,21 +5993,21 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>419</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224">
@@ -6023,16 +6023,16 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225">
@@ -6043,21 +6043,21 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="226">
@@ -6068,21 +6068,21 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>349</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227">
@@ -6093,21 +6093,21 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>215</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228">
@@ -6123,16 +6123,16 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>212</v>
+        <v>418</v>
       </c>
     </row>
     <row r="229">
@@ -6143,21 +6143,21 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>473</v>
+        <v>348</v>
       </c>
     </row>
     <row r="230">
@@ -6168,21 +6168,21 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231">
@@ -6193,21 +6193,21 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>306</v>
+        <v>70</v>
       </c>
     </row>
     <row r="232">
@@ -6218,21 +6218,21 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>321</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233">
@@ -6243,21 +6243,21 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>113</v>
+        <v>433</v>
       </c>
     </row>
     <row r="234">
@@ -6268,21 +6268,21 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235">
@@ -6298,16 +6298,16 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>251</v>
+        <v>171</v>
       </c>
     </row>
     <row r="236">
@@ -6323,16 +6323,16 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237">
@@ -6343,21 +6343,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>388</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238">
@@ -6368,21 +6368,21 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>73</v>
+        <v>307</v>
       </c>
     </row>
     <row r="239">
@@ -6393,21 +6393,21 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="240">
@@ -6418,21 +6418,21 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>431</v>
+        <v>194</v>
       </c>
     </row>
     <row r="241">
@@ -6448,16 +6448,16 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="242">
@@ -6468,21 +6468,21 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243">
@@ -6493,21 +6493,21 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>387</v>
+        <v>310</v>
       </c>
     </row>
     <row r="244">
@@ -6523,16 +6523,16 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>316</v>
+        <v>425</v>
       </c>
     </row>
     <row r="245">
@@ -6548,16 +6548,16 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246">
@@ -6568,21 +6568,21 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>357</v>
+        <v>199</v>
       </c>
     </row>
     <row r="247">
@@ -6598,16 +6598,16 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248">
@@ -6623,16 +6623,16 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>246</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249">
@@ -6643,21 +6643,21 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>288</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250">
@@ -6668,21 +6668,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251">
@@ -6707,7 +6707,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>153</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252">
@@ -6718,21 +6718,21 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>439</v>
+        <v>52</v>
       </c>
     </row>
     <row r="253">
@@ -6743,21 +6743,21 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>106</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="255">
@@ -6798,16 +6798,16 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>377</v>
+        <v>349</v>
       </c>
     </row>
     <row r="256">
@@ -6818,21 +6818,21 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>411</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257">
@@ -6843,21 +6843,21 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>27</v>
+        <v>276</v>
       </c>
     </row>
     <row r="258">
@@ -6868,21 +6868,21 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>324</v>
+        <v>452</v>
       </c>
     </row>
     <row r="259">
@@ -6893,21 +6893,21 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>419</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260">
@@ -6918,21 +6918,21 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>241</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261">
@@ -6943,21 +6943,21 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>142</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262">
@@ -6968,21 +6968,21 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>433</v>
+        <v>402</v>
       </c>
     </row>
     <row r="263">
@@ -6998,16 +6998,16 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="264">
@@ -7023,16 +7023,16 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row r="265">
@@ -7043,21 +7043,21 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22</v>
+        <v>334</v>
       </c>
     </row>
     <row r="266">
@@ -7068,21 +7068,21 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>441</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267">
@@ -7093,21 +7093,21 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>489</v>
+        <v>215</v>
       </c>
     </row>
     <row r="268">
@@ -7118,21 +7118,21 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>240</v>
+        <v>61</v>
       </c>
     </row>
     <row r="269">
@@ -7143,21 +7143,21 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>254</v>
+        <v>364</v>
       </c>
     </row>
     <row r="270">
@@ -7168,21 +7168,21 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>461</v>
+        <v>255</v>
       </c>
     </row>
     <row r="271">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>146</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272">
@@ -7218,21 +7218,21 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>462</v>
+        <v>21</v>
       </c>
     </row>
     <row r="273">
@@ -7243,21 +7243,21 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="274">
@@ -7268,21 +7268,21 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>227</v>
+        <v>108</v>
       </c>
     </row>
     <row r="275">
@@ -7298,16 +7298,16 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
     </row>
     <row r="276">
@@ -7323,16 +7323,16 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>468</v>
+        <v>45</v>
       </c>
     </row>
     <row r="277">
@@ -7348,16 +7348,16 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>103</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278">
@@ -7373,16 +7373,16 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="279">
@@ -7393,21 +7393,21 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>220</v>
+        <v>392</v>
       </c>
     </row>
     <row r="280">
@@ -7418,21 +7418,21 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>58</v>
+        <v>423</v>
       </c>
     </row>
     <row r="281">
@@ -7443,21 +7443,21 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282">
@@ -7468,21 +7468,21 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>152</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283">
@@ -7498,16 +7498,16 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>174</v>
+        <v>319</v>
       </c>
     </row>
     <row r="284">
@@ -7518,21 +7518,21 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>494</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285">
@@ -7543,21 +7543,21 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>482</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286">
@@ -7568,21 +7568,21 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>128</v>
+        <v>421</v>
       </c>
     </row>
     <row r="287">
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>161</v>
+        <v>458</v>
       </c>
     </row>
     <row r="288">
@@ -7618,21 +7618,21 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>412</v>
+        <v>290</v>
       </c>
     </row>
     <row r="289">
@@ -7648,16 +7648,16 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290">
@@ -7673,16 +7673,16 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>305</v>
+        <v>74</v>
       </c>
     </row>
     <row r="291">
@@ -7693,21 +7693,21 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>259</v>
+        <v>429</v>
       </c>
     </row>
     <row r="292">
@@ -7718,21 +7718,21 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>222</v>
+        <v>488</v>
       </c>
     </row>
     <row r="293">
@@ -7748,16 +7748,16 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>302</v>
+        <v>223</v>
       </c>
     </row>
     <row r="294">
@@ -7768,21 +7768,21 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="295">
@@ -7793,21 +7793,21 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>176</v>
+        <v>281</v>
       </c>
     </row>
     <row r="296">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>496</v>
+        <v>347</v>
       </c>
     </row>
     <row r="297">
@@ -7843,21 +7843,21 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Shop B</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>489</v>
+        <v>416</v>
       </c>
     </row>
     <row r="298">
@@ -7868,21 +7868,21 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>192</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299">
@@ -7893,21 +7893,21 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>53</v>
+        <v>254</v>
       </c>
     </row>
     <row r="300">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>455</v>
+        <v>114</v>
       </c>
     </row>
     <row r="301">
@@ -7943,21 +7943,21 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="302">
@@ -7968,21 +7968,21 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303">
@@ -7993,21 +7993,21 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>178</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304">
@@ -8018,21 +8018,21 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>440</v>
+        <v>333</v>
       </c>
     </row>
     <row r="305">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25</v>
+        <v>229</v>
       </c>
     </row>
     <row r="306">
@@ -8073,16 +8073,16 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>209</v>
+        <v>159</v>
       </c>
     </row>
     <row r="307">
@@ -8093,21 +8093,21 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>325</v>
+        <v>149</v>
       </c>
     </row>
     <row r="308">
@@ -8123,16 +8123,16 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>432</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309">
@@ -8148,16 +8148,16 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="310">
@@ -8168,21 +8168,21 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>398</v>
+        <v>423</v>
       </c>
     </row>
     <row r="311">
@@ -8193,21 +8193,21 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>344</v>
+        <v>271</v>
       </c>
     </row>
     <row r="312">
@@ -8223,16 +8223,16 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32</v>
+        <v>446</v>
       </c>
     </row>
     <row r="313">
@@ -8243,21 +8243,21 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>169</v>
+        <v>461</v>
       </c>
     </row>
     <row r="314">
@@ -8268,21 +8268,21 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>450</v>
+        <v>318</v>
       </c>
     </row>
     <row r="315">
@@ -8298,16 +8298,16 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop G</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>211</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316">
@@ -8318,21 +8318,21 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11</v>
+        <v>468</v>
       </c>
     </row>
     <row r="317">
@@ -8343,21 +8343,21 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="318">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319">
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>242</v>
+        <v>496</v>
       </c>
     </row>
     <row r="320">
@@ -8423,16 +8423,16 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="321">
@@ -8448,16 +8448,16 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Edinburgh</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop M</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>296</v>
+        <v>39</v>
       </c>
     </row>
     <row r="322">
@@ -8468,21 +8468,21 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="323">
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>50</v>
+        <v>428</v>
       </c>
     </row>
     <row r="324">
@@ -8518,21 +8518,21 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>130</v>
+        <v>447</v>
       </c>
     </row>
     <row r="325">
@@ -8543,21 +8543,21 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop A</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>383</v>
+        <v>272</v>
       </c>
     </row>
     <row r="326">
@@ -8568,21 +8568,21 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>281</v>
+        <v>149</v>
       </c>
     </row>
     <row r="327">
@@ -8607,7 +8607,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>489</v>
+        <v>292</v>
       </c>
     </row>
     <row r="328">
@@ -8623,16 +8623,16 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>311</v>
+        <v>474</v>
       </c>
     </row>
     <row r="329">
@@ -8643,21 +8643,21 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E329" t="n">
-        <v>89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="330">
@@ -8668,21 +8668,21 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E330" t="n">
-        <v>267</v>
+        <v>131</v>
       </c>
     </row>
     <row r="331">
@@ -8693,21 +8693,21 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E331" t="n">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="332">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>275</v>
+        <v>141</v>
       </c>
     </row>
     <row r="333">
@@ -8743,21 +8743,21 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E333" t="n">
-        <v>474</v>
+        <v>279</v>
       </c>
     </row>
     <row r="334">
@@ -8768,21 +8768,21 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E334" t="n">
-        <v>475</v>
+        <v>29</v>
       </c>
     </row>
     <row r="335">
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>65</v>
+        <v>411</v>
       </c>
     </row>
     <row r="336">
@@ -8818,21 +8818,21 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E336" t="n">
-        <v>137</v>
+        <v>366</v>
       </c>
     </row>
     <row r="337">
@@ -8843,21 +8843,21 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E337" t="n">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="338">
@@ -8868,21 +8868,21 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Shop F</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E338" t="n">
-        <v>395</v>
+        <v>209</v>
       </c>
     </row>
     <row r="339">
@@ -8898,16 +8898,16 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E339" t="n">
-        <v>276</v>
+        <v>325</v>
       </c>
     </row>
     <row r="340">
@@ -8918,21 +8918,21 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E340" t="n">
-        <v>256</v>
+        <v>464</v>
       </c>
     </row>
     <row r="341">
@@ -8943,21 +8943,21 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E341" t="n">
-        <v>410</v>
+        <v>485</v>
       </c>
     </row>
     <row r="342">
@@ -8968,21 +8968,21 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop C</t>
         </is>
       </c>
       <c r="E342" t="n">
-        <v>132</v>
+        <v>329</v>
       </c>
     </row>
     <row r="343">
@@ -8993,21 +8993,21 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E343" t="n">
-        <v>213</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344">
@@ -9018,21 +9018,21 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop K</t>
         </is>
       </c>
       <c r="E344" t="n">
-        <v>92</v>
+        <v>327</v>
       </c>
     </row>
     <row r="345">
@@ -9043,21 +9043,21 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Toronto</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop F</t>
         </is>
       </c>
       <c r="E345" t="n">
-        <v>397</v>
+        <v>71</v>
       </c>
     </row>
     <row r="346">
@@ -9068,21 +9068,21 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E346" t="n">
-        <v>337</v>
+        <v>36</v>
       </c>
     </row>
     <row r="347">
@@ -9093,21 +9093,21 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Shop H</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E347" t="n">
-        <v>249</v>
+        <v>293</v>
       </c>
     </row>
     <row r="348">
@@ -9118,21 +9118,21 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E348" t="n">
-        <v>66</v>
+        <v>392</v>
       </c>
     </row>
     <row r="349">
@@ -9148,16 +9148,16 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E349" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350">
@@ -9168,21 +9168,21 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E350" t="n">
-        <v>454</v>
+        <v>315</v>
       </c>
     </row>
     <row r="351">
@@ -9193,21 +9193,21 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Shop G</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36</v>
+        <v>495</v>
       </c>
     </row>
     <row r="352">
@@ -9223,16 +9223,16 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E352" t="n">
-        <v>65</v>
+        <v>328</v>
       </c>
     </row>
     <row r="353">
@@ -9243,21 +9243,21 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E353" t="n">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="354">
@@ -9268,21 +9268,21 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E354" t="n">
-        <v>355</v>
+        <v>66</v>
       </c>
     </row>
     <row r="355">
@@ -9293,21 +9293,21 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E355" t="n">
-        <v>396</v>
+        <v>463</v>
       </c>
     </row>
     <row r="356">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>247</v>
+        <v>477</v>
       </c>
     </row>
     <row r="357">
@@ -9348,16 +9348,16 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E357" t="n">
-        <v>287</v>
+        <v>406</v>
       </c>
     </row>
     <row r="358">
@@ -9368,21 +9368,21 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Shop D</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E358" t="n">
-        <v>432</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359">
@@ -9393,21 +9393,21 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Shop K</t>
+          <t>Shop B</t>
         </is>
       </c>
       <c r="E359" t="n">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="360">
@@ -9418,21 +9418,21 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop D</t>
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56</v>
+        <v>468</v>
       </c>
     </row>
     <row r="361">
@@ -9443,21 +9443,21 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Shop J</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E361" t="n">
-        <v>155</v>
+        <v>416</v>
       </c>
     </row>
     <row r="362">
@@ -9468,21 +9468,21 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Montreal</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Shop C</t>
+          <t>Shop I</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>407</v>
+        <v>376</v>
       </c>
     </row>
     <row r="363">
@@ -9493,21 +9493,21 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Shop E</t>
+          <t>Shop L</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>430</v>
+        <v>303</v>
       </c>
     </row>
     <row r="364">
@@ -9518,21 +9518,21 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Shop M</t>
+          <t>Shop E</t>
         </is>
       </c>
       <c r="E364" t="n">
-        <v>486</v>
+        <v>33</v>
       </c>
     </row>
     <row r="365">
@@ -9548,16 +9548,16 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Montreal</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Shop I</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E365" t="n">
-        <v>201</v>
+        <v>114</v>
       </c>
     </row>
     <row r="366">
@@ -9568,21 +9568,21 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Vancouver</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Shop L</t>
+          <t>Shop H</t>
         </is>
       </c>
       <c r="E366" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="367">
@@ -9593,21 +9593,21 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>London</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Shop A</t>
+          <t>Shop J</t>
         </is>
       </c>
       <c r="E367" t="n">
-        <v>393</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
